--- a/VersionRecords/Version 5.3.8.3 20170413/版本Bug和特性计划及评审表v5.3.8.3 - 捷豹组.xlsx
+++ b/VersionRecords/Version 5.3.8.3 20170413/版本Bug和特性计划及评审表v5.3.8.3 - 捷豹组.xlsx
@@ -976,6 +976,18 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="10" xfId="9" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="10" xfId="8" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="10" xfId="8" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="10" xfId="8" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="10" xfId="8" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="2" xfId="8" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1002,18 +1014,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="8" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="10" xfId="8" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="10" xfId="8" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="10" xfId="8" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="10" xfId="8" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="14">
@@ -1032,7 +1032,7 @@
     <cellStyle name="甘特图" xfId="3"/>
     <cellStyle name="着色 4" xfId="11" builtinId="41"/>
   </cellStyles>
-  <dxfs count="2">
+  <dxfs count="1">
     <dxf>
       <font>
         <b/>
@@ -1043,11 +1043,9 @@
         </patternFill>
       </fill>
     </dxf>
-    <dxf/>
   </dxfs>
   <tableStyles count="1" defaultTableStyle="TableStyleMedium2">
     <tableStyle name="MySqlDefault" count="2">
-      <tableStyleElement type="wholeTable" dxfId="1"/>
       <tableStyleElement type="headerRow" dxfId="0"/>
     </tableStyle>
   </tableStyles>
@@ -1394,7 +1392,7 @@
   <dimension ref="A1:X170"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
-      <selection activeCell="U2" sqref="U2"/>
+      <selection activeCell="T2" activeCellId="3" sqref="T2 T2 T2 T2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1495,16 +1493,16 @@
       </c>
     </row>
     <row r="2" spans="1:24" s="46" customFormat="1" ht="49.5" x14ac:dyDescent="0.15">
-      <c r="A2" s="87">
+      <c r="A2" s="78">
         <v>1</v>
       </c>
-      <c r="B2" s="87" t="s">
+      <c r="B2" s="78" t="s">
         <v>74</v>
       </c>
-      <c r="C2" s="87" t="s">
+      <c r="C2" s="78" t="s">
         <v>68</v>
       </c>
-      <c r="D2" s="88" t="s">
+      <c r="D2" s="79" t="s">
         <v>76</v>
       </c>
       <c r="E2" s="58" t="s">
@@ -1526,7 +1524,7 @@
         <v>42838</v>
       </c>
       <c r="K2" s="58"/>
-      <c r="L2" s="89" t="s">
+      <c r="L2" s="80" t="s">
         <v>78</v>
       </c>
       <c r="M2" s="58" t="s">
@@ -1538,22 +1536,24 @@
       <c r="O2" s="58" t="s">
         <v>79</v>
       </c>
-      <c r="P2" s="89" t="s">
+      <c r="P2" s="80" t="s">
         <v>72</v>
       </c>
       <c r="Q2" s="59">
         <v>42838</v>
       </c>
-      <c r="R2" s="89" t="s">
+      <c r="R2" s="80" t="s">
         <v>73</v>
       </c>
       <c r="S2" s="68"/>
-      <c r="T2" s="68"/>
+      <c r="T2" s="68">
+        <v>10829</v>
+      </c>
       <c r="U2" s="56"/>
       <c r="V2" s="67" t="s">
         <v>80</v>
       </c>
-      <c r="W2" s="90"/>
+      <c r="W2" s="81"/>
       <c r="X2" s="73"/>
     </row>
     <row r="3" spans="1:24" s="46" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
@@ -5835,19 +5835,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="20.25" x14ac:dyDescent="0.15">
-      <c r="A1" s="78" t="s">
+      <c r="A1" s="82" t="s">
         <v>39</v>
       </c>
-      <c r="B1" s="79"/>
-      <c r="C1" s="79"/>
-      <c r="D1" s="79"/>
-      <c r="E1" s="79"/>
-      <c r="F1" s="79"/>
-      <c r="G1" s="79"/>
-      <c r="H1" s="79"/>
-      <c r="I1" s="79"/>
-      <c r="J1" s="79"/>
-      <c r="K1" s="79"/>
+      <c r="B1" s="83"/>
+      <c r="C1" s="83"/>
+      <c r="D1" s="83"/>
+      <c r="E1" s="83"/>
+      <c r="F1" s="83"/>
+      <c r="G1" s="83"/>
+      <c r="H1" s="83"/>
+      <c r="I1" s="83"/>
+      <c r="J1" s="83"/>
+      <c r="K1" s="83"/>
     </row>
     <row r="2" spans="1:11" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A2" s="18" t="s">
@@ -5885,8 +5885,8 @@
       </c>
     </row>
     <row r="3" spans="1:11" ht="17.25" x14ac:dyDescent="0.15">
-      <c r="A3" s="80"/>
-      <c r="B3" s="80"/>
+      <c r="A3" s="84"/>
+      <c r="B3" s="84"/>
       <c r="C3" s="20"/>
       <c r="D3" s="21"/>
       <c r="E3" s="21"/>
@@ -5898,8 +5898,8 @@
       <c r="K3" s="28"/>
     </row>
     <row r="4" spans="1:11" ht="17.25" x14ac:dyDescent="0.15">
-      <c r="A4" s="81"/>
-      <c r="B4" s="82"/>
+      <c r="A4" s="85"/>
+      <c r="B4" s="86"/>
       <c r="C4" s="20"/>
       <c r="D4" s="21"/>
       <c r="E4" s="21"/>
@@ -5911,8 +5911,8 @@
       <c r="K4" s="28"/>
     </row>
     <row r="5" spans="1:11" ht="17.25" x14ac:dyDescent="0.15">
-      <c r="A5" s="80"/>
-      <c r="B5" s="80"/>
+      <c r="A5" s="84"/>
+      <c r="B5" s="84"/>
       <c r="C5" s="20"/>
       <c r="D5" s="21"/>
       <c r="E5" s="21"/>
@@ -5924,8 +5924,8 @@
       <c r="K5" s="28"/>
     </row>
     <row r="6" spans="1:11" ht="17.25" x14ac:dyDescent="0.15">
-      <c r="A6" s="82"/>
-      <c r="B6" s="82"/>
+      <c r="A6" s="86"/>
+      <c r="B6" s="86"/>
       <c r="C6" s="20"/>
       <c r="D6" s="21"/>
       <c r="E6" s="21"/>
@@ -5937,8 +5937,8 @@
       <c r="K6" s="28"/>
     </row>
     <row r="7" spans="1:11" ht="17.25" x14ac:dyDescent="0.15">
-      <c r="A7" s="82"/>
-      <c r="B7" s="82"/>
+      <c r="A7" s="86"/>
+      <c r="B7" s="86"/>
       <c r="C7" s="20"/>
       <c r="D7" s="21"/>
       <c r="E7" s="21"/>
@@ -5950,8 +5950,8 @@
       <c r="K7" s="28"/>
     </row>
     <row r="8" spans="1:11" ht="17.25" x14ac:dyDescent="0.15">
-      <c r="A8" s="82"/>
-      <c r="B8" s="82"/>
+      <c r="A8" s="86"/>
+      <c r="B8" s="86"/>
       <c r="C8" s="20"/>
       <c r="D8" s="21"/>
       <c r="E8" s="21"/>
@@ -5963,8 +5963,8 @@
       <c r="K8" s="28"/>
     </row>
     <row r="9" spans="1:11" ht="17.25" x14ac:dyDescent="0.15">
-      <c r="A9" s="82"/>
-      <c r="B9" s="82"/>
+      <c r="A9" s="86"/>
+      <c r="B9" s="86"/>
       <c r="C9" s="20"/>
       <c r="D9" s="21"/>
       <c r="E9" s="21"/>
@@ -5976,8 +5976,8 @@
       <c r="K9" s="28"/>
     </row>
     <row r="10" spans="1:11" ht="17.25" x14ac:dyDescent="0.15">
-      <c r="A10" s="81"/>
-      <c r="B10" s="81"/>
+      <c r="A10" s="85"/>
+      <c r="B10" s="85"/>
       <c r="C10" s="20"/>
       <c r="D10" s="21"/>
       <c r="E10" s="21"/>
@@ -6038,36 +6038,36 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A1" s="83" t="s">
+      <c r="A1" s="87" t="s">
         <v>50</v>
       </c>
-      <c r="B1" s="83"/>
-      <c r="C1" s="83"/>
-      <c r="D1" s="83"/>
-      <c r="E1" s="83"/>
-      <c r="F1" s="83"/>
-      <c r="G1" s="83"/>
-      <c r="H1" s="83"/>
-      <c r="I1" s="83"/>
-      <c r="J1" s="83"/>
-      <c r="K1" s="83"/>
-      <c r="L1" s="83"/>
-      <c r="M1" s="84"/>
+      <c r="B1" s="87"/>
+      <c r="C1" s="87"/>
+      <c r="D1" s="87"/>
+      <c r="E1" s="87"/>
+      <c r="F1" s="87"/>
+      <c r="G1" s="87"/>
+      <c r="H1" s="87"/>
+      <c r="I1" s="87"/>
+      <c r="J1" s="87"/>
+      <c r="K1" s="87"/>
+      <c r="L1" s="87"/>
+      <c r="M1" s="88"/>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A2" s="85"/>
-      <c r="B2" s="85"/>
-      <c r="C2" s="85"/>
-      <c r="D2" s="85"/>
-      <c r="E2" s="85"/>
-      <c r="F2" s="85"/>
-      <c r="G2" s="85"/>
-      <c r="H2" s="85"/>
-      <c r="I2" s="85"/>
-      <c r="J2" s="85"/>
-      <c r="K2" s="85"/>
-      <c r="L2" s="85"/>
-      <c r="M2" s="86"/>
+      <c r="A2" s="89"/>
+      <c r="B2" s="89"/>
+      <c r="C2" s="89"/>
+      <c r="D2" s="89"/>
+      <c r="E2" s="89"/>
+      <c r="F2" s="89"/>
+      <c r="G2" s="89"/>
+      <c r="H2" s="89"/>
+      <c r="I2" s="89"/>
+      <c r="J2" s="89"/>
+      <c r="K2" s="89"/>
+      <c r="L2" s="89"/>
+      <c r="M2" s="90"/>
     </row>
     <row r="3" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A3" s="8" t="s">
@@ -6352,36 +6352,36 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A1" s="83" t="s">
+      <c r="A1" s="87" t="s">
         <v>50</v>
       </c>
-      <c r="B1" s="83"/>
-      <c r="C1" s="83"/>
-      <c r="D1" s="83"/>
-      <c r="E1" s="83"/>
-      <c r="F1" s="83"/>
-      <c r="G1" s="83"/>
-      <c r="H1" s="83"/>
-      <c r="I1" s="83"/>
-      <c r="J1" s="83"/>
-      <c r="K1" s="83"/>
-      <c r="L1" s="83"/>
-      <c r="M1" s="84"/>
+      <c r="B1" s="87"/>
+      <c r="C1" s="87"/>
+      <c r="D1" s="87"/>
+      <c r="E1" s="87"/>
+      <c r="F1" s="87"/>
+      <c r="G1" s="87"/>
+      <c r="H1" s="87"/>
+      <c r="I1" s="87"/>
+      <c r="J1" s="87"/>
+      <c r="K1" s="87"/>
+      <c r="L1" s="87"/>
+      <c r="M1" s="88"/>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A2" s="85"/>
-      <c r="B2" s="85"/>
-      <c r="C2" s="85"/>
-      <c r="D2" s="85"/>
-      <c r="E2" s="85"/>
-      <c r="F2" s="85"/>
-      <c r="G2" s="85"/>
-      <c r="H2" s="85"/>
-      <c r="I2" s="85"/>
-      <c r="J2" s="85"/>
-      <c r="K2" s="85"/>
-      <c r="L2" s="85"/>
-      <c r="M2" s="86"/>
+      <c r="A2" s="89"/>
+      <c r="B2" s="89"/>
+      <c r="C2" s="89"/>
+      <c r="D2" s="89"/>
+      <c r="E2" s="89"/>
+      <c r="F2" s="89"/>
+      <c r="G2" s="89"/>
+      <c r="H2" s="89"/>
+      <c r="I2" s="89"/>
+      <c r="J2" s="89"/>
+      <c r="K2" s="89"/>
+      <c r="L2" s="89"/>
+      <c r="M2" s="90"/>
     </row>
     <row r="3" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A3" s="8" t="s">
@@ -6666,36 +6666,36 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A1" s="83" t="s">
+      <c r="A1" s="87" t="s">
         <v>50</v>
       </c>
-      <c r="B1" s="83"/>
-      <c r="C1" s="83"/>
-      <c r="D1" s="83"/>
-      <c r="E1" s="83"/>
-      <c r="F1" s="83"/>
-      <c r="G1" s="83"/>
-      <c r="H1" s="83"/>
-      <c r="I1" s="83"/>
-      <c r="J1" s="83"/>
-      <c r="K1" s="83"/>
-      <c r="L1" s="83"/>
-      <c r="M1" s="84"/>
+      <c r="B1" s="87"/>
+      <c r="C1" s="87"/>
+      <c r="D1" s="87"/>
+      <c r="E1" s="87"/>
+      <c r="F1" s="87"/>
+      <c r="G1" s="87"/>
+      <c r="H1" s="87"/>
+      <c r="I1" s="87"/>
+      <c r="J1" s="87"/>
+      <c r="K1" s="87"/>
+      <c r="L1" s="87"/>
+      <c r="M1" s="88"/>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A2" s="85"/>
-      <c r="B2" s="85"/>
-      <c r="C2" s="85"/>
-      <c r="D2" s="85"/>
-      <c r="E2" s="85"/>
-      <c r="F2" s="85"/>
-      <c r="G2" s="85"/>
-      <c r="H2" s="85"/>
-      <c r="I2" s="85"/>
-      <c r="J2" s="85"/>
-      <c r="K2" s="85"/>
-      <c r="L2" s="85"/>
-      <c r="M2" s="86"/>
+      <c r="A2" s="89"/>
+      <c r="B2" s="89"/>
+      <c r="C2" s="89"/>
+      <c r="D2" s="89"/>
+      <c r="E2" s="89"/>
+      <c r="F2" s="89"/>
+      <c r="G2" s="89"/>
+      <c r="H2" s="89"/>
+      <c r="I2" s="89"/>
+      <c r="J2" s="89"/>
+      <c r="K2" s="89"/>
+      <c r="L2" s="89"/>
+      <c r="M2" s="90"/>
     </row>
     <row r="3" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A3" s="8" t="s">
@@ -6982,36 +6982,36 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A1" s="83" t="s">
+      <c r="A1" s="87" t="s">
         <v>50</v>
       </c>
-      <c r="B1" s="83"/>
-      <c r="C1" s="83"/>
-      <c r="D1" s="83"/>
-      <c r="E1" s="83"/>
-      <c r="F1" s="83"/>
-      <c r="G1" s="83"/>
-      <c r="H1" s="83"/>
-      <c r="I1" s="83"/>
-      <c r="J1" s="83"/>
-      <c r="K1" s="83"/>
-      <c r="L1" s="83"/>
-      <c r="M1" s="84"/>
+      <c r="B1" s="87"/>
+      <c r="C1" s="87"/>
+      <c r="D1" s="87"/>
+      <c r="E1" s="87"/>
+      <c r="F1" s="87"/>
+      <c r="G1" s="87"/>
+      <c r="H1" s="87"/>
+      <c r="I1" s="87"/>
+      <c r="J1" s="87"/>
+      <c r="K1" s="87"/>
+      <c r="L1" s="87"/>
+      <c r="M1" s="88"/>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A2" s="85"/>
-      <c r="B2" s="85"/>
-      <c r="C2" s="85"/>
-      <c r="D2" s="85"/>
-      <c r="E2" s="85"/>
-      <c r="F2" s="85"/>
-      <c r="G2" s="85"/>
-      <c r="H2" s="85"/>
-      <c r="I2" s="85"/>
-      <c r="J2" s="85"/>
-      <c r="K2" s="85"/>
-      <c r="L2" s="85"/>
-      <c r="M2" s="86"/>
+      <c r="A2" s="89"/>
+      <c r="B2" s="89"/>
+      <c r="C2" s="89"/>
+      <c r="D2" s="89"/>
+      <c r="E2" s="89"/>
+      <c r="F2" s="89"/>
+      <c r="G2" s="89"/>
+      <c r="H2" s="89"/>
+      <c r="I2" s="89"/>
+      <c r="J2" s="89"/>
+      <c r="K2" s="89"/>
+      <c r="L2" s="89"/>
+      <c r="M2" s="90"/>
     </row>
     <row r="3" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A3" s="8" t="s">
